--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB0110-8C12-4915-AD49-C146FDC0CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803FB8D-D667-4AB6-8E29-B6E569E27967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -721,7 +721,7 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6">
-        <v>-1001526649802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001730274097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="6">
-        <v>-1001526649802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001741658220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -778,10 +778,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="6">
-        <v>-1001760395300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001727680598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -793,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>-1001609329597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001524014211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -808,10 +808,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="6">
-        <v>-1001659397519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001582910403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -823,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="6">
-        <v>-1001786647722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1001708569060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -837,9 +837,11 @@
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="6">
+        <v>-1001309095112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -850,9 +852,11 @@
       <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="6">
+        <v>-1001632285141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -865,7 +869,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -878,7 +882,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -891,7 +895,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -904,7 +908,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -917,7 +921,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -930,7 +934,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -943,7 +947,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -956,7 +960,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -969,7 +973,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -982,7 +986,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -995,7 +999,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1012,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -1021,7 +1025,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1034,7 +1038,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1051,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -1060,7 +1064,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1073,7 +1077,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -1086,7 +1090,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -1099,7 +1103,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1116,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1129,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -1138,7 +1142,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -1151,7 +1155,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1177,7 +1181,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1190,7 +1194,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1207,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -1216,7 +1220,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1229,7 +1233,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -1255,7 +1259,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -1268,7 +1272,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
@@ -1281,7 +1285,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -1294,7 +1298,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -1307,7 +1311,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -1320,7 +1324,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1333,7 +1337,7 @@
       </c>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -1359,7 +1363,7 @@
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -1372,7 +1376,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -1385,6 +1389,9 @@
       </c>
       <c r="E50" s="6"/>
     </row>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:B50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803FB8D-D667-4AB6-8E29-B6E569E27967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A139621-59F0-43AD-811C-E57792FE2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аркуш1!$A$1:$B$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аркуш1!$A$1:$B$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Канал</t>
   </si>
@@ -187,12 +187,6 @@
     <t>Lady 10</t>
   </si>
   <si>
-    <t>https://t.me/DossoDossiOfficial</t>
-  </si>
-  <si>
-    <t>Lady 11</t>
-  </si>
-  <si>
     <t>https://t.me/+jjKGZaGED0VkZGNk</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Lady 15</t>
   </si>
   <si>
-    <t>Lady 16</t>
-  </si>
-  <si>
     <t>https://t.me/+ZNYfDGLxT3E5MmI0</t>
   </si>
   <si>
@@ -331,13 +322,10 @@
     <t>Textile 01</t>
   </si>
   <si>
+    <t>https://t.me/KimmensMerter</t>
+  </si>
+  <si>
     <t>Чоловічий одяг</t>
-  </si>
-  <si>
-    <t>Men 01</t>
-  </si>
-  <si>
-    <t>https://t.me/KimmensMerter</t>
   </si>
   <si>
     <t>Men 02</t>
@@ -471,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -707,10 +696,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -747,9 +736,7 @@
       <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
-        <v>-1001730274097</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -762,9 +749,7 @@
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
-        <v>-1001741658220</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -777,9 +762,7 @@
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
-        <v>-1001727680598</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -792,9 +775,7 @@
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>-1001524014211</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -807,9 +788,7 @@
       <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
-        <v>-1001582910403</v>
-      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -822,9 +801,7 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
-        <v>-1001708569060</v>
-      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -837,9 +814,7 @@
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6">
-        <v>-1001309095112</v>
-      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -852,9 +827,7 @@
       <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
-        <v>-1001632285141</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1118,59 +1091,59 @@
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>36</v>
@@ -1195,255 +1168,212 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
+      <c r="A36" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
+      <c r="A44" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>97</v>
+      <c r="A46" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:B50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\Job\Documents\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A139621-59F0-43AD-811C-E57792FE2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28184E36-D75F-4EAE-BC8E-D9AA6F4820EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4005" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Аркуш1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Аркуш1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Аркуш1'!$A$1:$B$46</definedName>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -582,7 +582,9 @@
           <t>Kids 02</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n"/>
+      <c r="E6" s="6" t="n">
+        <v>-1001202347780</v>
+      </c>
       <c r="F6" t="n">
         <v>-1001230109168</v>
       </c>
@@ -1451,49 +1453,49 @@
   </sheetData>
   <autoFilter ref="A1:B46"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId43"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId37"/>
+    <hyperlink ref="A40" r:id="rId38"/>
+    <hyperlink ref="A41" r:id="rId39"/>
+    <hyperlink ref="A42" r:id="rId40"/>
+    <hyperlink ref="A43" r:id="rId41"/>
+    <hyperlink ref="A44" r:id="rId42"/>
+    <hyperlink ref="A45" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -606,7 +606,9 @@
           <t>Kids 03</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n"/>
+      <c r="E7" s="6" t="n">
+        <v>-1001681384538</v>
+      </c>
       <c r="F7" t="n">
         <v>-1001422508351</v>
       </c>
@@ -628,7 +630,9 @@
           <t>Kids 04</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n"/>
+      <c r="E8" s="6" t="n">
+        <v>-1001512235328</v>
+      </c>
       <c r="F8" t="n">
         <v>-1001311046313</v>
       </c>
@@ -650,7 +654,9 @@
           <t>Kids 05</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n"/>
+      <c r="E9" s="6" t="n">
+        <v>-1001638095450</v>
+      </c>
       <c r="F9" t="n">
         <v>-1001682966144</v>
       </c>
@@ -672,7 +678,9 @@
           <t>Kids 06</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="n">
+        <v>-1001157891993</v>
+      </c>
       <c r="F10" t="n">
         <v>-1001310350674</v>
       </c>
@@ -694,7 +702,9 @@
           <t>Kids 07</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n"/>
+      <c r="E11" s="6" t="n">
+        <v>-1001725679159</v>
+      </c>
       <c r="F11" t="n">
         <v>-1001455813820</v>
       </c>
@@ -716,7 +726,9 @@
           <t>Kids 08</t>
         </is>
       </c>
-      <c r="E12" s="6" t="n"/>
+      <c r="E12" s="6" t="n">
+        <v>-1001743225478</v>
+      </c>
       <c r="F12" t="n">
         <v>-1001316270694</v>
       </c>
@@ -738,7 +750,9 @@
           <t>Kids 09</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n"/>
+      <c r="E13" s="6" t="n">
+        <v>-1001752363694</v>
+      </c>
       <c r="F13" t="n">
         <v>-1001333678339</v>
       </c>
@@ -760,7 +774,9 @@
           <t>Kids 10</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n"/>
+      <c r="E14" s="6" t="n">
+        <v>-1001517436682</v>
+      </c>
       <c r="F14" t="n">
         <v>-1001317326289</v>
       </c>
@@ -782,7 +798,9 @@
           <t>Kids 11</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n"/>
+      <c r="E15" s="6" t="n">
+        <v>-1001723905599</v>
+      </c>
       <c r="F15" t="n">
         <v>-1001209455711</v>
       </c>
@@ -804,7 +822,9 @@
           <t>Lady 01</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n"/>
+      <c r="E16" s="6" t="n">
+        <v>-1001777469724</v>
+      </c>
       <c r="F16" t="n">
         <v>-1001436459944</v>
       </c>
@@ -826,7 +846,9 @@
           <t>Lady 03</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n"/>
+      <c r="E17" s="6" t="n">
+        <v>-1001609106895</v>
+      </c>
       <c r="F17" t="n">
         <v>-1001194532911</v>
       </c>
@@ -848,7 +870,9 @@
           <t>Lady 04</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n"/>
+      <c r="E18" s="6" t="n">
+        <v>-1001606437904</v>
+      </c>
       <c r="F18" t="n">
         <v>-1001413004878</v>
       </c>
@@ -870,7 +894,9 @@
           <t>Lady 05</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n"/>
+      <c r="E19" s="6" t="n">
+        <v>-1001635235619</v>
+      </c>
       <c r="F19" t="n">
         <v>-1001721500809</v>
       </c>
@@ -892,7 +918,9 @@
           <t>Lady 06</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n"/>
+      <c r="E20" s="6" t="n">
+        <v>-1001616165904</v>
+      </c>
       <c r="F20" t="n">
         <v>-1001503645054</v>
       </c>
@@ -914,7 +942,9 @@
           <t>Lady 07</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6" t="n">
+        <v>-1001753833916</v>
+      </c>
       <c r="F21" t="n">
         <v>-1001658320419</v>
       </c>
@@ -936,7 +966,9 @@
           <t>Lady 08</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n"/>
+      <c r="E22" s="6" t="n">
+        <v>-1001658229338</v>
+      </c>
       <c r="F22" t="n">
         <v>-1001633872849</v>
       </c>
@@ -958,7 +990,9 @@
           <t>Lady 09</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n"/>
+      <c r="E23" s="6" t="n">
+        <v>-1001507784730</v>
+      </c>
       <c r="F23" t="n">
         <v>-1001612492750</v>
       </c>
@@ -980,7 +1014,9 @@
           <t>Lady 10</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n"/>
+      <c r="E24" s="6" t="n">
+        <v>-1001632601623</v>
+      </c>
       <c r="F24" t="n">
         <v>-1001708824152</v>
       </c>
@@ -1002,7 +1038,9 @@
           <t>Lady 12</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n"/>
+      <c r="E25" s="6" t="n">
+        <v>-1001342434966</v>
+      </c>
       <c r="F25" t="n">
         <v>-1001513988672</v>
       </c>
@@ -1024,7 +1062,9 @@
           <t>Lady 13</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n"/>
+      <c r="E26" s="6" t="n">
+        <v>-1001179517011</v>
+      </c>
       <c r="F26" t="n">
         <v>-1001778052502</v>
       </c>
@@ -1046,7 +1086,9 @@
           <t>Lady 14</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n"/>
+      <c r="E27" s="6" t="n">
+        <v>-1001531571813</v>
+      </c>
       <c r="F27" t="n">
         <v>-1001522169018</v>
       </c>
@@ -1068,7 +1110,9 @@
           <t>Lady 15</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n"/>
+      <c r="E28" s="6" t="n">
+        <v>-1001607900739</v>
+      </c>
       <c r="F28" t="n">
         <v>-1001549916394</v>
       </c>
@@ -1090,7 +1134,9 @@
           <t>Lady 17</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n"/>
+      <c r="E29" s="6" t="n">
+        <v>-1001780843308</v>
+      </c>
       <c r="F29" t="n">
         <v>-1001589891807</v>
       </c>
@@ -1112,7 +1158,9 @@
           <t>Lady 18</t>
         </is>
       </c>
-      <c r="E30" s="6" t="n"/>
+      <c r="E30" s="6" t="n">
+        <v>-1001614873560</v>
+      </c>
       <c r="F30" t="n">
         <v>-1001156463319</v>
       </c>
@@ -1134,7 +1182,9 @@
           <t>Lady 19</t>
         </is>
       </c>
-      <c r="E31" s="6" t="n"/>
+      <c r="E31" s="6" t="n">
+        <v>-1001567947798</v>
+      </c>
       <c r="F31" t="n">
         <v>-1001645715858</v>
       </c>
@@ -1156,7 +1206,9 @@
           <t>Lady 20</t>
         </is>
       </c>
-      <c r="E32" s="6" t="n"/>
+      <c r="E32" s="6" t="n">
+        <v>-1001789994326</v>
+      </c>
       <c r="F32" t="n">
         <v>-1001175053836</v>
       </c>
@@ -1178,7 +1230,9 @@
           <t>Lady 21</t>
         </is>
       </c>
-      <c r="E33" s="6" t="n"/>
+      <c r="E33" s="6" t="n">
+        <v>-1001392671668</v>
+      </c>
       <c r="F33" t="n">
         <v>-1001617234760</v>
       </c>
@@ -1200,7 +1254,9 @@
           <t>Lady 23</t>
         </is>
       </c>
-      <c r="E34" s="6" t="n"/>
+      <c r="E34" s="6" t="n">
+        <v>-1001225895546</v>
+      </c>
       <c r="F34" t="n">
         <v>-1001764054063</v>
       </c>
@@ -1222,7 +1278,9 @@
           <t>Lady 24</t>
         </is>
       </c>
-      <c r="E35" s="6" t="n"/>
+      <c r="E35" s="6" t="n">
+        <v>-1001661380070</v>
+      </c>
       <c r="F35" t="n">
         <v>-1001787697672</v>
       </c>
@@ -1244,7 +1302,9 @@
           <t>Krosivku 01</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n"/>
+      <c r="E36" s="6" t="n">
+        <v>-1001632354530</v>
+      </c>
       <c r="F36" t="n">
         <v>-1001624496329</v>
       </c>
@@ -1266,7 +1326,9 @@
           <t>Krosivku 02</t>
         </is>
       </c>
-      <c r="E37" s="6" t="n"/>
+      <c r="E37" s="6" t="n">
+        <v>-1001503094690</v>
+      </c>
       <c r="F37" t="n">
         <v>-1001442858680</v>
       </c>
@@ -1288,7 +1350,9 @@
           <t>Sport 01</t>
         </is>
       </c>
-      <c r="E38" s="6" t="n"/>
+      <c r="E38" s="6" t="n">
+        <v>-1001527182641</v>
+      </c>
       <c r="F38" t="n">
         <v>-1001521496831</v>
       </c>
@@ -1310,7 +1374,9 @@
           <t>Bags 01</t>
         </is>
       </c>
-      <c r="E39" s="6" t="n"/>
+      <c r="E39" s="6" t="n">
+        <v>-1001652057973</v>
+      </c>
       <c r="F39" t="n">
         <v>-1001134053865</v>
       </c>
@@ -1332,7 +1398,9 @@
           <t>Bags 02</t>
         </is>
       </c>
-      <c r="E40" s="6" t="n"/>
+      <c r="E40" s="6" t="n">
+        <v>-1001660283652</v>
+      </c>
       <c r="F40" t="n">
         <v>-1001439410675</v>
       </c>
@@ -1354,7 +1422,9 @@
           <t>Bags 03</t>
         </is>
       </c>
-      <c r="E41" s="6" t="n"/>
+      <c r="E41" s="6" t="n">
+        <v>-1001765445247</v>
+      </c>
       <c r="F41" t="n">
         <v>-1001137221302</v>
       </c>
@@ -1376,7 +1446,9 @@
           <t>Bags 04</t>
         </is>
       </c>
-      <c r="E42" s="6" t="n"/>
+      <c r="E42" s="6" t="n">
+        <v>-1001593923131</v>
+      </c>
       <c r="F42" t="n">
         <v>-1001484843997</v>
       </c>
@@ -1398,7 +1470,9 @@
           <t>Textile 01</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n"/>
+      <c r="E43" s="6" t="n">
+        <v>-1001693108317</v>
+      </c>
       <c r="F43" t="n">
         <v>-1001210970016</v>
       </c>
@@ -1420,7 +1494,9 @@
           <t>Men 02</t>
         </is>
       </c>
-      <c r="E44" s="6" t="n"/>
+      <c r="E44" s="6" t="n">
+        <v>-1001509846293</v>
+      </c>
       <c r="F44" t="n">
         <v>-1001193371368</v>
       </c>
@@ -1442,7 +1518,9 @@
           <t>Men 03</t>
         </is>
       </c>
-      <c r="E45" s="6" t="n"/>
+      <c r="E45" s="6" t="n">
+        <v>-1001676191365</v>
+      </c>
       <c r="F45" t="n">
         <v>-1001178142107</v>
       </c>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Desktop\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705E827-42AD-44E1-8DF7-A3E88567DF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7254DB-353E-42C3-B431-19787AE97184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Канал</t>
   </si>
@@ -133,6 +133,9 @@
     <t>https://t.me/lendyofficial</t>
   </si>
   <si>
+    <t>Жіночий одяг</t>
+  </si>
+  <si>
     <t>Lady 01</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
     <t>Men 03</t>
   </si>
   <si>
-    <t>Жіночий одяг</t>
+    <t>Взуття для чоловіків 02</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -972,11 +975,11 @@
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6">
         <v>-1001777469724</v>
@@ -987,14 +990,14 @@
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
         <v>-1001609106895</v>
@@ -1005,14 +1008,14 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6">
         <v>-1001606437904</v>
@@ -1023,14 +1026,14 @@
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6">
         <v>-1001635235619</v>
@@ -1041,14 +1044,14 @@
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6">
         <v>-1001616165904</v>
@@ -1059,14 +1062,14 @@
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6">
         <v>-1001753833916</v>
@@ -1077,14 +1080,14 @@
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6">
         <v>-1001658229338</v>
@@ -1095,14 +1098,14 @@
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="6">
         <v>-1001507784730</v>
@@ -1113,14 +1116,14 @@
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="6">
         <v>-1001632601623</v>
@@ -1131,14 +1134,14 @@
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6">
         <v>-1001342434966</v>
@@ -1149,14 +1152,14 @@
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6">
         <v>-1001179517011</v>
@@ -1167,14 +1170,14 @@
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="6">
         <v>-1001531571813</v>
@@ -1185,14 +1188,14 @@
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" s="6">
         <v>-1001607900739</v>
@@ -1203,14 +1206,14 @@
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6">
         <v>-1001780843308</v>
@@ -1221,14 +1224,14 @@
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6">
         <v>-1001614873560</v>
@@ -1239,14 +1242,14 @@
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6">
         <v>-1001567947798</v>
@@ -1257,14 +1260,14 @@
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="6">
         <v>-1001789994326</v>
@@ -1275,14 +1278,14 @@
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="6">
         <v>-1001392671668</v>
@@ -1293,14 +1296,14 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="6">
         <v>-1001225895546</v>
@@ -1311,14 +1314,14 @@
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="6">
         <v>-1001661380070</v>
@@ -1329,14 +1332,14 @@
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6">
         <v>-1001632354530</v>
@@ -1347,14 +1350,14 @@
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6">
         <v>-1001503094690</v>
@@ -1365,14 +1368,14 @@
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6">
         <v>-1001527182641</v>
@@ -1383,14 +1386,14 @@
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="6">
         <v>-1001652057973</v>
@@ -1401,14 +1404,14 @@
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6">
         <v>-1001660283652</v>
@@ -1419,14 +1422,14 @@
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="6">
         <v>-1001765445247</v>
@@ -1437,14 +1440,14 @@
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="6">
         <v>-1001593923131</v>
@@ -1455,14 +1458,14 @@
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="6">
         <v>-1001693108317</v>
@@ -1473,14 +1476,14 @@
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="6">
         <v>-1001509846293</v>
@@ -1491,14 +1494,14 @@
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="6">
         <v>-1001676191365</v>
@@ -1507,9 +1510,18 @@
         <v>-1001178142107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:B46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Desktop\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7254DB-353E-42C3-B431-19787AE97184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819BBD4-6128-4ABD-A369-11944AC5D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>Канал</t>
   </si>
@@ -52,15 +52,6 @@
     <t>Biluzna 02</t>
   </si>
   <si>
-    <t>https://t.me/meshureluxuryshoes</t>
-  </si>
-  <si>
-    <t>Взуття чоловіче</t>
-  </si>
-  <si>
-    <t>Взуття для чоловіків 01</t>
-  </si>
-  <si>
     <t>https://t.me/babykidsmario</t>
   </si>
   <si>
@@ -326,9 +317,6 @@
   </si>
   <si>
     <t>Men 03</t>
-  </si>
-  <si>
-    <t>Взуття для чоловіків 02</t>
   </si>
 </sst>
 </file>
@@ -692,7 +680,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,7 +743,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -766,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="6">
-        <v>-1001775386712</v>
+        <v>-1001722769212</v>
       </c>
       <c r="F4">
-        <v>-1001484148833</v>
+        <v>-1001478074210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -777,557 +765,557 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-1001202347780</v>
+      </c>
+      <c r="F5">
+        <v>-1001230109168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>-1001722769212</v>
-      </c>
-      <c r="F5">
-        <v>-1001478074210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1001681384538</v>
+      </c>
+      <c r="F6">
+        <v>-1001422508351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
-        <v>-1001202347780</v>
-      </c>
-      <c r="F6">
-        <v>-1001230109168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
-        <v>-1001681384538</v>
+        <v>-1001512235328</v>
       </c>
       <c r="F7">
-        <v>-1001422508351</v>
+        <v>-1001311046313</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6">
-        <v>-1001512235328</v>
+        <v>-1001638095450</v>
       </c>
       <c r="F8">
-        <v>-1001311046313</v>
+        <v>-1001682966144</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6">
-        <v>-1001638095450</v>
+        <v>-1001157891993</v>
       </c>
       <c r="F9">
-        <v>-1001682966144</v>
+        <v>-1001310350674</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6">
-        <v>-1001157891993</v>
+        <v>-1001725679159</v>
       </c>
       <c r="F10">
-        <v>-1001310350674</v>
+        <v>-1001455813820</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6">
-        <v>-1001725679159</v>
+        <v>-1001743225478</v>
       </c>
       <c r="F11">
-        <v>-1001455813820</v>
+        <v>-1001316270694</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6">
-        <v>-1001743225478</v>
+        <v>-1001752363694</v>
       </c>
       <c r="F12">
-        <v>-1001316270694</v>
+        <v>-1001333678339</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6">
-        <v>-1001752363694</v>
+        <v>-1001517436682</v>
       </c>
       <c r="F13">
-        <v>-1001333678339</v>
+        <v>-1001317326289</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6">
-        <v>-1001517436682</v>
+        <v>-1001723905599</v>
       </c>
       <c r="F14">
-        <v>-1001317326289</v>
+        <v>-1001209455711</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="6">
-        <v>-1001723905599</v>
+        <v>-1001777469724</v>
       </c>
       <c r="F15">
-        <v>-1001209455711</v>
+        <v>-1001436459944</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-1001609106895</v>
+      </c>
+      <c r="F16">
+        <v>-1001194532911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6">
-        <v>-1001777469724</v>
-      </c>
-      <c r="F16">
-        <v>-1001436459944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-1001606437904</v>
+      </c>
+      <c r="F17">
+        <v>-1001413004878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6">
-        <v>-1001609106895</v>
-      </c>
-      <c r="F17">
-        <v>-1001194532911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6">
-        <v>-1001606437904</v>
+        <v>-1001635235619</v>
       </c>
       <c r="F18">
-        <v>-1001413004878</v>
+        <v>-1001721500809</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-1001616165904</v>
+      </c>
+      <c r="F19">
+        <v>-1001503645054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6">
-        <v>-1001635235619</v>
-      </c>
-      <c r="F19">
-        <v>-1001721500809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-1001753833916</v>
+      </c>
+      <c r="F20">
+        <v>-1001658320419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6">
-        <v>-1001616165904</v>
-      </c>
-      <c r="F20">
-        <v>-1001503645054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-1001658229338</v>
+      </c>
+      <c r="F21">
+        <v>-1001633872849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="6">
-        <v>-1001753833916</v>
-      </c>
-      <c r="F21">
-        <v>-1001658320419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
-        <v>-1001658229338</v>
+        <v>-1001507784730</v>
       </c>
       <c r="F22">
-        <v>-1001633872849</v>
+        <v>-1001612492750</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6">
-        <v>-1001507784730</v>
+        <v>-1001632601623</v>
       </c>
       <c r="F23">
-        <v>-1001612492750</v>
+        <v>-1001708824152</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6">
-        <v>-1001632601623</v>
+        <v>-1001342434966</v>
       </c>
       <c r="F24">
-        <v>-1001708824152</v>
+        <v>-1001513988672</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6">
-        <v>-1001342434966</v>
+        <v>-1001179517011</v>
       </c>
       <c r="F25">
-        <v>-1001513988672</v>
+        <v>-1001778052502</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6">
-        <v>-1001179517011</v>
+        <v>-1001531571813</v>
       </c>
       <c r="F26">
-        <v>-1001778052502</v>
+        <v>-1001522169018</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6">
-        <v>-1001531571813</v>
+        <v>-1001607900739</v>
       </c>
       <c r="F27">
-        <v>-1001522169018</v>
+        <v>-1001549916394</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6">
-        <v>-1001607900739</v>
+        <v>-1001780843308</v>
       </c>
       <c r="F28">
-        <v>-1001549916394</v>
+        <v>-1001589891807</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="6">
-        <v>-1001780843308</v>
+        <v>-1001614873560</v>
       </c>
       <c r="F29">
-        <v>-1001589891807</v>
+        <v>-1001156463319</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6">
-        <v>-1001614873560</v>
+        <v>-1001567947798</v>
       </c>
       <c r="F30">
-        <v>-1001156463319</v>
+        <v>-1001645715858</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6">
-        <v>-1001567947798</v>
+        <v>-1001789994326</v>
       </c>
       <c r="F31">
-        <v>-1001645715858</v>
+        <v>-1001175053836</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6">
-        <v>-1001789994326</v>
+        <v>-1001392671668</v>
       </c>
       <c r="F32">
-        <v>-1001175053836</v>
+        <v>-1001617234760</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-1001225895546</v>
+      </c>
+      <c r="F33">
+        <v>-1001764054063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="6">
-        <v>-1001392671668</v>
-      </c>
-      <c r="F33">
-        <v>-1001617234760</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-1001661380070</v>
+      </c>
+      <c r="F34">
+        <v>-1001787697672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="6">
-        <v>-1001225895546</v>
-      </c>
-      <c r="F34">
-        <v>-1001764054063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="6">
-        <v>-1001661380070</v>
+        <v>-1001632354530</v>
       </c>
       <c r="F35">
-        <v>-1001787697672</v>
+        <v>-1001624496329</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1335,35 +1323,35 @@
         <v>76</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6">
-        <v>-1001632354530</v>
+        <v>-1001503094690</v>
       </c>
       <c r="F36">
-        <v>-1001624496329</v>
+        <v>-1001442858680</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="6">
-        <v>-1001503094690</v>
+        <v>-1001527182641</v>
       </c>
       <c r="F37">
-        <v>-1001442858680</v>
+        <v>-1001521496831</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,10 +1366,10 @@
         <v>83</v>
       </c>
       <c r="E38" s="6">
-        <v>-1001527182641</v>
+        <v>-1001652057973</v>
       </c>
       <c r="F38">
-        <v>-1001521496831</v>
+        <v>-1001134053865</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1389,71 +1377,71 @@
         <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="6">
-        <v>-1001652057973</v>
+        <v>-1001660283652</v>
       </c>
       <c r="F39">
-        <v>-1001134053865</v>
+        <v>-1001439410675</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="6">
-        <v>-1001660283652</v>
+        <v>-1001765445247</v>
       </c>
       <c r="F40">
-        <v>-1001439410675</v>
+        <v>-1001137221302</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="6">
-        <v>-1001765445247</v>
+        <v>-1001593923131</v>
       </c>
       <c r="F41">
-        <v>-1001137221302</v>
+        <v>-1001484843997</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="6">
-        <v>-1001593923131</v>
+        <v>-1001693108317</v>
       </c>
       <c r="F42">
-        <v>-1001484843997</v>
+        <v>-1001210970016</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,10 +1456,10 @@
         <v>95</v>
       </c>
       <c r="E43" s="6">
-        <v>-1001693108317</v>
+        <v>-1001509846293</v>
       </c>
       <c r="F43">
-        <v>-1001210970016</v>
+        <v>-1001193371368</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,95 +1467,66 @@
         <v>96</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="6">
-        <v>-1001509846293</v>
+        <v>-1001676191365</v>
       </c>
       <c r="F44">
-        <v>-1001193371368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="6">
-        <v>-1001676191365</v>
-      </c>
-      <c r="F45">
         <v>-1001178142107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:B46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Desktop\seller_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819BBD4-6128-4ABD-A369-11944AC5D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168907E2-25CB-45D1-9C2C-B322661D866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7425" yWindow="2880" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аркуш1!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Аркуш1!$A$1:$B$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -677,10 +677,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1481,10 +1481,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:B46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
